--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value586.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value586.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.38749443560977</v>
+        <v>1.096050500869751</v>
       </c>
       <c r="B1">
-        <v>1.822107753105262</v>
+        <v>1.968271732330322</v>
       </c>
       <c r="C1">
-        <v>1.829524620561102</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.195737605349283</v>
+        <v>2.020567178726196</v>
       </c>
       <c r="E1">
-        <v>1.728320647331819</v>
+        <v>1.128741383552551</v>
       </c>
     </row>
   </sheetData>
